--- a/data_impute_project/data/human.xlsx
+++ b/data_impute_project/data/human.xlsx
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>cemetery/period</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>K</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>87Sr/86Sr bone</t>
+          <t>L</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>87Sr/86Sr enamel</t>
+          <t>M</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/human.xlsx
+++ b/data_impute_project/data/human.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>H</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,11 @@
         <v>0.71</v>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>H 4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +526,11 @@
         <v>0.71</v>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>H 17</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +551,11 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>H 64</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -558,6 +578,11 @@
         <v>0.71</v>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>H 66a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -576,6 +601,11 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>H 67 a?</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -600,6 +630,11 @@
       <c r="H7" t="inlineStr">
         <is>
           <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>H 72</t>
         </is>
       </c>
     </row>
@@ -620,6 +655,11 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>H 76</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -642,6 +682,11 @@
         <v>0.71</v>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>H 105</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -664,6 +709,11 @@
         <v>0.71</v>
       </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>H 106a</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -684,6 +734,11 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>H 107</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -704,6 +759,11 @@
         <v>0.71</v>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>H 154</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -724,6 +784,11 @@
         <v>0.71</v>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>H 269</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -746,6 +811,11 @@
         <v>0.71</v>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>H 270</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -768,6 +838,11 @@
         <v>0.71</v>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>H 271</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -790,6 +865,11 @@
         <v>0.71</v>
       </c>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>H 274</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -812,6 +892,11 @@
         <v>0.71</v>
       </c>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>H 275</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -830,6 +915,11 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>H 276</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -848,6 +938,11 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>H K XII</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -868,6 +963,11 @@
         <v>0.71</v>
       </c>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>H 1902 Grube 56 I-IV</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -890,6 +990,11 @@
         <v>0.71</v>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>H 1904 III/1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -912,6 +1017,11 @@
         <v>0.71</v>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>H 1912 XIII/3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -934,6 +1044,11 @@
         <v>0.71</v>
       </c>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>H 1912 XIV.3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -956,6 +1071,11 @@
         <v>0.71</v>
       </c>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>H 1936 DIV</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -978,6 +1098,11 @@
       <c r="H25" t="n">
         <v>0.7098100000000001</v>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>H 1968 Sk 4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -996,6 +1121,11 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>H 1968 Sk 5</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1016,6 +1146,11 @@
         <v>0.71</v>
       </c>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>H 1968 Sk 6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1038,6 +1173,11 @@
         <v>0.71</v>
       </c>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>H 12301 K I/1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1060,6 +1200,11 @@
         <v>0.71</v>
       </c>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>H 12370 K IX/6</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1082,6 +1227,11 @@
       <c r="H30" t="n">
         <v>0.70917</v>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>H 12640 K XIII/3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1100,6 +1250,11 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>H 12640 XIII/2</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1118,6 +1273,11 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>H Kammergrab III</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1136,6 +1296,11 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>H unter Gr 10</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1157,6 +1322,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0.70909</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>RM 2</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1176,6 +1346,11 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>RM 5</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1198,6 +1373,11 @@
       <c r="H36" t="n">
         <v>0.71055</v>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>RM 8</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1219,6 +1399,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>0.71067</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>RM 9</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1238,6 +1423,11 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RM 11</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1258,6 +1448,11 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>RM 12</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1279,6 +1474,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>0.71266</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>RM 14</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1298,6 +1498,11 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RM 17</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1320,6 +1525,11 @@
       <c r="H42" t="n">
         <v>0.7099299999999999</v>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>RM 21</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1340,6 +1550,11 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>RM 23</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1360,6 +1575,11 @@
       <c r="H44" t="n">
         <v>0.71194</v>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>RM 28</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1378,6 +1598,11 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>RM 29</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1396,6 +1621,11 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>RM 31</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1418,6 +1648,11 @@
       <c r="H47" t="n">
         <v>0.7105</v>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>RM 32</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1439,6 +1674,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>0.71122</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>RM 38</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1458,6 +1698,11 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>RM 41</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1480,6 +1725,11 @@
       <c r="H50" t="n">
         <v>0.71118</v>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>RM 42</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1501,6 +1751,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0.7110300000000001</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>RM 52 a</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1520,6 +1775,11 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>RM 54</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1540,6 +1800,11 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>RM 57</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1562,6 +1827,11 @@
       <c r="H54" t="n">
         <v>0.70989</v>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>RM 58</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1582,6 +1852,11 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>RM 60</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1600,6 +1875,11 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>RM 68</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1620,6 +1900,11 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>RM 76</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1640,6 +1925,11 @@
       <c r="H58" t="n">
         <v>0.70964</v>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>RM 78</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1658,6 +1948,11 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>RM 79</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1676,6 +1971,11 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>RM 80</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1697,6 +1997,11 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0.70956</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>RM 81</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1716,6 +2021,11 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>RM 82</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1736,6 +2046,11 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>RM 86</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1758,6 +2073,11 @@
       <c r="H64" t="n">
         <v>0.71011</v>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>RM 88</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1779,6 +2099,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>0.71073</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>RM 90</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1798,6 +2123,11 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>RM 91</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1816,6 +2146,11 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>RM 92</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1836,6 +2171,11 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>RM 93</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1856,6 +2196,11 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>RM 94</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1877,6 +2222,11 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0.7107599999999999</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>RM 95</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1896,6 +2246,11 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>RM 98</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1914,6 +2269,11 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>RM 100</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1932,6 +2292,11 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>RM 101</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1950,6 +2315,11 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>RM 102</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1973,6 +2343,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
         <v>0.7106</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>RM 103</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1992,6 +2367,11 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>RM 104</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2012,6 +2392,11 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>RM 105</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2032,6 +2417,11 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>RM 107</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2050,6 +2440,11 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>RM 108</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2070,6 +2465,11 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>RM 109</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2090,6 +2490,11 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>RM 110</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2108,6 +2513,11 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>RM 113</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2126,6 +2536,11 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>RM 114</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2146,6 +2561,11 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>RM 115</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2169,6 +2589,11 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
         <v>0.7098100000000001</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>RM 116</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2188,6 +2613,11 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>RM 117</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2206,6 +2636,11 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>RM 118</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2228,6 +2663,11 @@
       <c r="H88" t="n">
         <v>0.70941</v>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>RM 120</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2249,6 +2689,11 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>0.70931</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>RM 125</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2268,6 +2713,11 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>RM 131 a</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2290,6 +2740,11 @@
       <c r="H91" t="n">
         <v>0.7101499999999999</v>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>RM 134</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2311,6 +2766,11 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>0.7108</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>RM 135</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -2330,6 +2790,11 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>RM 136</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2352,6 +2817,11 @@
       <c r="H94" t="n">
         <v>0.70925</v>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>RM 137</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2374,6 +2844,11 @@
       <c r="H95" t="n">
         <v>0.7092000000000001</v>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>RM 138</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2394,6 +2869,11 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>RM 139</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2418,6 +2898,11 @@
       <c r="H97" t="n">
         <v>0.70963</v>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>RM 140</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2438,6 +2923,11 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>RM 141</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2461,6 +2951,11 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
         <v>0.7094200000000001</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>RM 142a</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -2482,6 +2977,11 @@
       <c r="H100" t="n">
         <v>0.71055</v>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>RM 142b</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2500,6 +3000,11 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>RM 143</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2518,6 +3023,11 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>RM 144</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2541,6 +3051,11 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
         <v>0.7116</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>RM 145</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -2562,6 +3077,11 @@
       <c r="H104" t="n">
         <v>0.71028</v>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>RM 146</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2582,6 +3102,11 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>RM 147</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2600,6 +3125,11 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>RM 150</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2620,6 +3150,11 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>RM 154</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2638,6 +3173,11 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>RM 155</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2658,6 +3198,11 @@
       <c r="H109" t="n">
         <v>0.72961</v>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>RM 156</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2680,6 +3225,11 @@
       <c r="H110" t="n">
         <v>0.70933</v>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>RM 158</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2702,6 +3252,11 @@
       <c r="H111" t="n">
         <v>0.70933</v>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>RM 159</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2720,6 +3275,11 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>RM 160</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2740,6 +3300,11 @@
       <c r="H113" t="n">
         <v>0.71087</v>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>RM 165</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2760,6 +3325,11 @@
       <c r="H114" t="n">
         <v>0.71078</v>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>RM 167</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2780,6 +3350,11 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>RM 169</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2802,6 +3377,11 @@
       <c r="H116" t="n">
         <v>0.70956</v>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>RM 170</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2822,6 +3402,11 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>RM 171</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2842,6 +3427,11 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>RM 172</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2862,6 +3452,11 @@
       <c r="H119" t="n">
         <v>0.70929</v>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>RM 173</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2880,6 +3475,11 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>RM 175</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2900,6 +3500,11 @@
       <c r="H121" t="n">
         <v>0.71102</v>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>RM 178</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2920,6 +3525,11 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>RM 179</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2938,6 +3548,11 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>RM 180</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2958,6 +3573,11 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>RM 182</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2978,6 +3598,11 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>RM 183</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2998,6 +3623,11 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>RM 185</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3018,6 +3648,11 @@
       <c r="H127" t="n">
         <v>0.7111499999999999</v>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>RM 186</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3036,6 +3671,11 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>RM 188</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3056,6 +3696,11 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>RM 191</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3076,6 +3721,11 @@
       <c r="H130" t="n">
         <v>0.7111499999999999</v>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>RM 193</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3096,6 +3746,11 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>RM 194</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3118,6 +3773,11 @@
       <c r="H132" t="n">
         <v>0.71152</v>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>RM 197</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3138,6 +3798,11 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>RM 198</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3156,6 +3821,11 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>RM 200</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3178,6 +3848,11 @@
       <c r="H135" t="n">
         <v>0.7385699999999999</v>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>RM 202</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3196,6 +3871,11 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>RM 203</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3214,6 +3894,11 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>RM 205</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3234,6 +3919,11 @@
       <c r="H138" t="n">
         <v>0.70941</v>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>RM 207</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3256,6 +3946,11 @@
       <c r="H139" t="n">
         <v>0.71128</v>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>RM 208</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3274,6 +3969,11 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>RM 210</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3292,6 +3992,11 @@
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>RM 212</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3310,6 +4015,11 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>RM 213</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3328,6 +4038,11 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>RM 214</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3348,6 +4063,11 @@
       <c r="H144" t="n">
         <v>0.71117</v>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>RM 215</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3368,6 +4088,11 @@
       <c r="H145" t="n">
         <v>0.71045</v>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>RM 219</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3388,6 +4113,11 @@
       <c r="H146" t="n">
         <v>0.70924</v>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>RM 221</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3406,6 +4136,11 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>RM 226</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3424,6 +4159,11 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>RM 230</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3449,6 +4189,11 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
         <v>0.71064</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>RM 232</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -3470,6 +4215,11 @@
       <c r="H150" t="n">
         <v>0.7107599999999999</v>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>RM 233</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3488,6 +4238,11 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>RM 234</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3511,6 +4266,11 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
         <v>0.70948</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>SC 5</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -3530,6 +4290,11 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>SC 19 b</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3548,6 +4313,11 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>SC 21</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3568,6 +4338,11 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>SC 53</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3588,6 +4363,11 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>SC 57</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3608,6 +4388,11 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>SC 58</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3628,6 +4413,11 @@
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>SC 59</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3648,6 +4438,11 @@
       <c r="H159" t="n">
         <v>0.71211</v>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>SC 66</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3666,6 +4461,11 @@
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>SC 67</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3684,6 +4484,11 @@
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>SC 69</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3702,6 +4507,11 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>SC 73</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3722,6 +4532,11 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>SC 75</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3745,6 +4560,11 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
         <v>0.71157</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>SC 92</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -3764,6 +4584,11 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>SC 94</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3784,6 +4609,11 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>SC 96</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3802,6 +4632,11 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>SC 97</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3825,6 +4660,11 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
         <v>0.71492</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>SC 101</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -3846,6 +4686,11 @@
       <c r="H169" t="n">
         <v>0.7108</v>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>SC 103</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3866,6 +4711,11 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>SC 104</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3889,6 +4739,11 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
         <v>0.71146</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>SC 105</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -3908,6 +4763,11 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>SC 111</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3930,6 +4790,11 @@
       <c r="H173" t="n">
         <v>0.70951</v>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>SC 119</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3952,6 +4817,11 @@
       <c r="H174" t="n">
         <v>0.71096</v>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>SC 120</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3974,6 +4844,11 @@
       <c r="H175" t="n">
         <v>0.70948</v>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>SC 132</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3994,6 +4869,11 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>SC 141</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4012,6 +4892,11 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>SC 145</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4032,6 +4917,11 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>SC 146</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4050,6 +4940,11 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>SC 147</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4068,6 +4963,11 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>SC 162</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4086,6 +4986,11 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>SC 164</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4106,6 +5011,11 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>SC 175</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4124,6 +5034,11 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>SC 177</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4142,6 +5057,11 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>SC 179</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4163,6 +5083,11 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>0.71183</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>SC 193</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -4182,6 +5107,11 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>SC 197 a</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4202,6 +5132,11 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>SC 198 a</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4220,6 +5155,11 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>SC 198 b</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4238,6 +5178,11 @@
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>SC 206</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4256,6 +5201,11 @@
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>SC 213</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4276,6 +5226,11 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>SC 214</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4296,6 +5251,11 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>SC 222</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4316,6 +5276,11 @@
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>SC 225</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4336,6 +5301,11 @@
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>SC 226</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4356,6 +5326,11 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>SC 228</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4376,6 +5351,11 @@
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>SC 229</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4400,6 +5380,11 @@
       <c r="H197" t="n">
         <v>0.7115899999999999</v>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>SC 232</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4420,6 +5405,11 @@
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>SC 237</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4440,6 +5430,11 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>SC 270</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4460,6 +5455,11 @@
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>SC 273</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_impute_project/data/human.xlsx
+++ b/data_impute_project/data/human.xlsx
@@ -518,10 +518,10 @@
       <c r="D3" t="n">
         <v>-5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
         <v>11.9</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>0.71</v>
       </c>
@@ -545,10 +545,10 @@
       <c r="D4" t="n">
         <v>-5.1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
         <v>11.8</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -570,10 +570,10 @@
       <c r="D5" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.71</v>
       </c>
@@ -620,10 +620,10 @@
       <c r="D7" t="n">
         <v>-4.9</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
         <v>10.1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0.71</v>
       </c>
@@ -674,10 +674,10 @@
       <c r="D9" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>7.5</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0.71</v>
       </c>
@@ -701,10 +701,10 @@
       <c r="D10" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>13.3</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0.71</v>
       </c>
@@ -728,10 +728,10 @@
       <c r="D11" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
         <v>6.1</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -803,10 +803,10 @@
       <c r="D14" t="n">
         <v>-6.4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
         <v>10.4</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>0.71</v>
       </c>
@@ -830,10 +830,10 @@
       <c r="D15" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
         <v>4.4</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0.71</v>
       </c>
@@ -857,10 +857,10 @@
       <c r="D16" t="n">
         <v>-4.8</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
         <v>13.7</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>0.71</v>
       </c>
@@ -884,10 +884,10 @@
       <c r="D17" t="n">
         <v>-5.9</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>12.5</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0.71</v>
       </c>
@@ -982,10 +982,10 @@
       <c r="D21" t="n">
         <v>-7</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
         <v>11.5</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0.71</v>
       </c>
@@ -1009,10 +1009,10 @@
       <c r="D22" t="n">
         <v>-6</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
         <v>11.3</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>0.71</v>
       </c>
@@ -1036,10 +1036,10 @@
       <c r="D23" t="n">
         <v>-6.5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
         <v>10.3</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>0.71</v>
       </c>
@@ -1063,10 +1063,10 @@
       <c r="D24" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
         <v>5.1</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>0.71</v>
       </c>
@@ -1165,10 +1165,10 @@
       <c r="D28" t="n">
         <v>-6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
         <v>11.3</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>0.71</v>
       </c>
@@ -1192,10 +1192,10 @@
       <c r="D29" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
         <v>11.2</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>0.71</v>
       </c>
@@ -1315,10 +1315,10 @@
       <c r="D34" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
+      <c r="E34" t="n">
         <v>18.03</v>
       </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
         <v>0.70909</v>
@@ -1365,10 +1365,10 @@
       <c r="D36" t="n">
         <v>-5.7</v>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
+      <c r="E36" t="n">
         <v>17.64</v>
       </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
         <v>0.71055</v>
@@ -1392,10 +1392,10 @@
       <c r="D37" t="n">
         <v>-6.4</v>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="E37" t="n">
         <v>17.97</v>
       </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>0.71067</v>
@@ -1442,10 +1442,10 @@
       <c r="D39" t="n">
         <v>-8.9</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
         <v>11.3</v>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -1467,10 +1467,10 @@
       <c r="D40" t="n">
         <v>-5</v>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="E40" t="n">
         <v>17.66</v>
       </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>0.71266</v>
@@ -1517,10 +1517,10 @@
       <c r="D42" t="n">
         <v>-5.7</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="E42" t="n">
         <v>16.43</v>
       </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
         <v>0.7099299999999999</v>
@@ -1544,10 +1544,10 @@
       <c r="D43" t="n">
         <v>-7.4</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
         <v>13.1</v>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -1640,10 +1640,10 @@
       <c r="D47" t="n">
         <v>-7.1</v>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
+      <c r="E47" t="n">
         <v>17.24</v>
       </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>0.7105</v>
@@ -1667,10 +1667,10 @@
       <c r="D48" t="n">
         <v>-6.6</v>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="n">
+      <c r="E48" t="n">
         <v>17.05</v>
       </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>0.71122</v>
@@ -1717,10 +1717,10 @@
       <c r="D50" t="n">
         <v>-6.8</v>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
+      <c r="E50" t="n">
         <v>17.26</v>
       </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
         <v>0.71118</v>
@@ -1744,10 +1744,10 @@
       <c r="D51" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
+      <c r="E51" t="n">
         <v>16.43</v>
       </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
         <v>0.7110300000000001</v>
@@ -1794,10 +1794,10 @@
       <c r="D53" t="n">
         <v>-6.3</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
         <v>7.1</v>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -1819,10 +1819,10 @@
       <c r="D54" t="n">
         <v>-7.9</v>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
+      <c r="E54" t="n">
         <v>17.65</v>
       </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
         <v>0.70989</v>
@@ -1846,10 +1846,10 @@
       <c r="D55" t="n">
         <v>-6.6</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
         <v>8.6</v>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -1894,10 +1894,10 @@
       <c r="D57" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
         <v>11.5</v>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -1990,10 +1990,10 @@
       <c r="D61" t="n">
         <v>-5.3</v>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+      <c r="E61" t="n">
         <v>17.45</v>
       </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
         <v>0.70956</v>
@@ -2040,10 +2040,10 @@
       <c r="D63" t="n">
         <v>-7.9</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
@@ -2065,10 +2065,10 @@
       <c r="D64" t="n">
         <v>-5.3</v>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+      <c r="E64" t="n">
         <v>17.1</v>
       </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
         <v>0.71011</v>
@@ -2092,10 +2092,10 @@
       <c r="D65" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="E65" t="n">
         <v>17.76</v>
       </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
         <v>0.71073</v>
@@ -2165,10 +2165,10 @@
       <c r="D68" t="n">
         <v>-8.300000000000001</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
         <v>11.6</v>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
@@ -2190,10 +2190,10 @@
       <c r="D69" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
         <v>7.9</v>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
@@ -2215,10 +2215,10 @@
       <c r="D70" t="n">
         <v>-8.4</v>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="n">
+      <c r="E70" t="n">
         <v>16.2</v>
       </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
         <v>0.7107599999999999</v>
@@ -2335,10 +2335,10 @@
         <v>-6.9</v>
       </c>
       <c r="E75" t="n">
+        <v>17.34</v>
+      </c>
+      <c r="F75" t="n">
         <v>6.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>17.34</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
@@ -2386,10 +2386,10 @@
       <c r="D77" t="n">
         <v>-7.5</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
         <v>11.3</v>
       </c>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
@@ -2411,10 +2411,10 @@
       <c r="D78" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
@@ -2459,10 +2459,10 @@
       <c r="D80" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
         <v>12.7</v>
       </c>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
@@ -2484,10 +2484,10 @@
       <c r="D81" t="n">
         <v>-7.9</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
         <v>12.7</v>
       </c>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
@@ -2555,10 +2555,10 @@
       <c r="D84" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
         <v>11.3</v>
       </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
@@ -2581,10 +2581,10 @@
         <v>-7.3</v>
       </c>
       <c r="E85" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="F85" t="n">
         <v>2.1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>17.78</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
@@ -2655,10 +2655,10 @@
       <c r="D88" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
+      <c r="E88" t="n">
         <v>18.35</v>
       </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
         <v>0.70941</v>
@@ -2682,10 +2682,10 @@
       <c r="D89" t="n">
         <v>-6.5</v>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
+      <c r="E89" t="n">
         <v>17.81</v>
       </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
         <v>0.70931</v>
@@ -2732,10 +2732,10 @@
       <c r="D91" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
+      <c r="E91" t="n">
         <v>17.73</v>
       </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
         <v>0.7101499999999999</v>
@@ -2759,10 +2759,10 @@
       <c r="D92" t="n">
         <v>-8.699999999999999</v>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="n">
+      <c r="E92" t="n">
         <v>16.58</v>
       </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
         <v>0.7108</v>
@@ -2809,10 +2809,10 @@
       <c r="D94" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
         <v>11.5</v>
       </c>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
         <v>0.70925</v>
@@ -2836,10 +2836,10 @@
       <c r="D95" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="n">
+      <c r="E95" t="n">
         <v>16.81</v>
       </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
         <v>0.7092000000000001</v>
@@ -2863,10 +2863,10 @@
       <c r="D96" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
         <v>7.7</v>
       </c>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
@@ -2889,10 +2889,10 @@
         <v>-7</v>
       </c>
       <c r="E97" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F97" t="n">
         <v>9.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>16.48</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
@@ -2917,10 +2917,10 @@
       <c r="D98" t="n">
         <v>-7.3</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
         <v>3.5</v>
       </c>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
@@ -2943,10 +2943,10 @@
         <v>-8.1</v>
       </c>
       <c r="E99" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="F99" t="n">
         <v>9.300000000000001</v>
-      </c>
-      <c r="F99" t="n">
-        <v>16.78</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
@@ -3043,10 +3043,10 @@
         <v>-7.1</v>
       </c>
       <c r="E103" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F103" t="n">
         <v>11.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>16.6</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
@@ -3096,10 +3096,10 @@
       <c r="D105" t="n">
         <v>-8</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
         <v>11.7</v>
       </c>
-      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
@@ -3144,10 +3144,10 @@
       <c r="D107" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
         <v>11.2</v>
       </c>
-      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
@@ -3217,10 +3217,10 @@
       <c r="D110" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
         <v>5.8</v>
       </c>
-      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>0.70933</v>
@@ -3244,10 +3244,10 @@
       <c r="D111" t="n">
         <v>-7.4</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
         <v>10.2</v>
       </c>
-      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
         <v>0.70933</v>
@@ -3344,10 +3344,10 @@
       <c r="D115" t="n">
         <v>-6.6</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
         <v>12.8</v>
       </c>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
@@ -3369,10 +3369,10 @@
       <c r="D116" t="n">
         <v>-9.199999999999999</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
         <v>10.3</v>
       </c>
-      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
         <v>0.70956</v>
@@ -3396,10 +3396,10 @@
       <c r="D117" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
         <v>9.6</v>
       </c>
-      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
@@ -3421,10 +3421,10 @@
       <c r="D118" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
         <v>11</v>
       </c>
-      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
@@ -3519,10 +3519,10 @@
       <c r="D122" t="n">
         <v>-8</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
         <v>11.3</v>
       </c>
-      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
@@ -3567,10 +3567,10 @@
       <c r="D124" t="n">
         <v>-7.9</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
         <v>2.6</v>
       </c>
-      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
@@ -3592,10 +3592,10 @@
       <c r="D125" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
         <v>8.9</v>
       </c>
-      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
@@ -3617,10 +3617,10 @@
       <c r="D126" t="n">
         <v>-6.8</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
         <v>7.2</v>
       </c>
-      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
@@ -3690,10 +3690,10 @@
       <c r="D129" t="n">
         <v>-7.4</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
         <v>10.3</v>
       </c>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
@@ -3740,10 +3740,10 @@
       <c r="D131" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
         <v>6.6</v>
       </c>
-      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
@@ -3765,10 +3765,10 @@
       <c r="D132" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
         <v>11.1</v>
       </c>
-      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
         <v>0.71152</v>
@@ -3792,10 +3792,10 @@
       <c r="D133" t="n">
         <v>-8.1</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
         <v>12.3</v>
       </c>
-      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
@@ -3840,10 +3840,10 @@
       <c r="D135" t="n">
         <v>-8.9</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
         <v>12.6</v>
       </c>
-      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
         <v>0.7385699999999999</v>
@@ -3938,10 +3938,10 @@
       <c r="D139" t="n">
         <v>-7.3</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
         <v>11.1</v>
       </c>
-      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
         <v>0.71128</v>
@@ -4178,13 +4178,13 @@
       <c r="D149" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F149" t="n">
         <v>8.1</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
@@ -4258,10 +4258,10 @@
         <v>-5</v>
       </c>
       <c r="E152" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="F152" t="n">
         <v>7.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>17.38</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
@@ -4332,10 +4332,10 @@
       <c r="D155" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="n">
         <v>10.3</v>
       </c>
-      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
@@ -4357,10 +4357,10 @@
       <c r="D156" t="n">
         <v>-9.800000000000001</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
@@ -4382,10 +4382,10 @@
       <c r="D157" t="n">
         <v>-6</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="n">
         <v>13.8</v>
       </c>
-      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
@@ -4407,10 +4407,10 @@
       <c r="D158" t="n">
         <v>-7.4</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="n">
         <v>7</v>
       </c>
-      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
@@ -4526,10 +4526,10 @@
       <c r="D163" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="n">
         <v>11.7</v>
       </c>
-      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
@@ -4552,10 +4552,10 @@
         <v>-6.3</v>
       </c>
       <c r="E164" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="F164" t="n">
         <v>12.7</v>
-      </c>
-      <c r="F164" t="n">
-        <v>17.22</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
@@ -4603,10 +4603,10 @@
       <c r="D166" t="n">
         <v>-6.3</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="n">
         <v>11.7</v>
       </c>
-      <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
@@ -4652,10 +4652,10 @@
         <v>-10</v>
       </c>
       <c r="E168" t="n">
+        <v>17</v>
+      </c>
+      <c r="F168" t="n">
         <v>13.2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>17</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
@@ -4705,10 +4705,10 @@
       <c r="D170" t="n">
         <v>-7.1</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="n">
         <v>4.2</v>
       </c>
-      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
@@ -4731,10 +4731,10 @@
         <v>-5.9</v>
       </c>
       <c r="E171" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="F171" t="n">
         <v>14</v>
-      </c>
-      <c r="F171" t="n">
-        <v>17.44</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
@@ -4782,10 +4782,10 @@
       <c r="D173" t="n">
         <v>-6.8</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="n">
+      <c r="E173" t="n">
         <v>18.06</v>
       </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
         <v>0.70951</v>
@@ -4809,10 +4809,10 @@
       <c r="D174" t="n">
         <v>-5.7</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="n">
+      <c r="E174" t="n">
         <v>16.89</v>
       </c>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
         <v>0.71096</v>
@@ -4836,10 +4836,10 @@
       <c r="D175" t="n">
         <v>-8.1</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="n">
+      <c r="E175" t="n">
         <v>17.18</v>
       </c>
+      <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
         <v>0.70948</v>
@@ -4863,10 +4863,10 @@
       <c r="D176" t="n">
         <v>-8.6</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="n">
         <v>12.1</v>
       </c>
-      <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
@@ -4911,10 +4911,10 @@
       <c r="D178" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="n">
         <v>12</v>
       </c>
-      <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
@@ -5005,10 +5005,10 @@
       <c r="D182" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="n">
         <v>12.4</v>
       </c>
-      <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
@@ -5076,10 +5076,10 @@
       <c r="D185" t="n">
         <v>-6.4</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="n">
+      <c r="E185" t="n">
         <v>17.39</v>
       </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
         <v>0.71183</v>
@@ -5126,10 +5126,10 @@
       <c r="D187" t="n">
         <v>-6.2</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="n">
         <v>11.3</v>
       </c>
-      <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
@@ -5220,10 +5220,10 @@
       <c r="D191" t="n">
         <v>-10.1</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="n">
         <v>11.6</v>
       </c>
-      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
@@ -5245,10 +5245,10 @@
       <c r="D192" t="n">
         <v>-7.5</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="n">
         <v>12.1</v>
       </c>
-      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
@@ -5270,10 +5270,10 @@
       <c r="D193" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
         <v>11.3</v>
       </c>
-      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
@@ -5295,10 +5295,10 @@
       <c r="D194" t="n">
         <v>-6.2</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="n">
         <v>12.2</v>
       </c>
-      <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
@@ -5320,10 +5320,10 @@
       <c r="D195" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="n">
         <v>12.2</v>
       </c>
-      <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
@@ -5345,10 +5345,10 @@
       <c r="D196" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="n">
         <v>12.2</v>
       </c>
-      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
@@ -5371,10 +5371,10 @@
         <v>-10.7</v>
       </c>
       <c r="E197" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="F197" t="n">
         <v>11.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>17.53</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
@@ -5399,10 +5399,10 @@
       <c r="D198" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
         <v>12.3</v>
       </c>
-      <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
@@ -5424,10 +5424,10 @@
       <c r="D199" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
         <v>12.4</v>
       </c>
-      <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
@@ -5449,10 +5449,10 @@
       <c r="D200" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
